--- a/Software/PSoc/Roadster/WaarheidsTabelLijnvolger.xlsx
+++ b/Software/PSoc/Roadster/WaarheidsTabelLijnvolger.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\basile.berckmoes\Documents\GitHub\RobotComp2ELO\Software\PSoc\Roadster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E572D2-EE81-422E-B77D-EE48B7433171}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{284172B8-5122-41F5-A51D-B55013062B1A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16545" windowHeight="4620" xr2:uid="{D029D4B0-8809-456F-9C34-A25463A5F706}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>IR Bit</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>for(int i = 4; i &lt;= 7; i++)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -487,7 +490,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,28 +632,28 @@
       <c r="I3" s="1"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="4">
-        <f>A2</f>
+        <f t="shared" ref="R3:R10" si="0">A2</f>
         <v>0</v>
       </c>
       <c r="S3" s="4">
-        <f t="shared" ref="S3:T10" si="0">B2</f>
+        <f t="shared" ref="S3:T10" si="1">B2</f>
         <v>0</v>
       </c>
       <c r="T3" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>255</v>
       </c>
       <c r="U3" s="2"/>
       <c r="V3" s="4">
-        <f>A2</f>
+        <f t="shared" ref="V3:V10" si="2">A2</f>
         <v>0</v>
       </c>
       <c r="W3" s="4">
-        <f t="shared" ref="W3:X10" si="1">B2</f>
+        <f t="shared" ref="W3:X10" si="3">B2</f>
         <v>0</v>
       </c>
       <c r="X3" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="Y3" s="2"/>
@@ -672,28 +675,28 @@
       <c r="J4" s="1"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="4">
-        <f>A3</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="S4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="T4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="U4" s="2"/>
       <c r="V4" s="4">
-        <f>A3</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="W4" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="X4" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="Y4" s="2"/>
@@ -712,28 +715,28 @@
       <c r="K5" s="1"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="4">
-        <f>A4</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="S5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>235</v>
       </c>
       <c r="T5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>225</v>
       </c>
       <c r="U5" s="2"/>
       <c r="V5" s="4">
-        <f>A4</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="W5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>235</v>
       </c>
       <c r="X5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>225</v>
       </c>
       <c r="Y5" s="2"/>
@@ -752,28 +755,28 @@
       <c r="L6" s="1"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="4">
-        <f>A5</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="S6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>255</v>
       </c>
       <c r="T6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>255</v>
       </c>
       <c r="U6" s="2"/>
       <c r="V6" s="4">
-        <f>A5</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="W6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="X6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="Y6" s="2"/>
@@ -785,35 +788,35 @@
       <c r="B7">
         <v>225</v>
       </c>
-      <c r="C7">
-        <v>210</v>
+      <c r="C7" t="s">
+        <v>22</v>
       </c>
       <c r="H7" s="2"/>
       <c r="M7" s="1"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="4">
-        <f>A6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="S7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>255</v>
       </c>
       <c r="T7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>235</v>
       </c>
       <c r="U7" s="2"/>
       <c r="V7" s="4">
-        <f>A6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="W7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="X7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>235</v>
       </c>
       <c r="Y7" s="2"/>
@@ -832,29 +835,29 @@
       <c r="N8" s="1"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="4">
-        <f>A7</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="S8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="T8" s="4">
-        <f t="shared" si="0"/>
-        <v>210</v>
+      <c r="T8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="U8" s="2"/>
       <c r="V8" s="4">
-        <f>A7</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="W8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>225</v>
       </c>
-      <c r="X8" s="4">
-        <f t="shared" si="1"/>
-        <v>210</v>
+      <c r="X8" s="4" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Y8" s="2"/>
     </row>
@@ -872,28 +875,28 @@
       <c r="O9" s="1"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="4">
-        <f>A8</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="S9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="T9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="U9" s="2"/>
       <c r="V9" s="4">
-        <f>A8</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="W9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="X9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="Y9" s="2"/>
@@ -903,28 +906,28 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="4">
-        <f>A9</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="S10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>255</v>
       </c>
       <c r="T10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="U10" s="2"/>
       <c r="V10" s="4">
-        <f>A9</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="W10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>255</v>
       </c>
       <c r="X10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Y10" s="2"/>
@@ -988,11 +991,11 @@
         <v>0</v>
       </c>
       <c r="S12" s="4">
-        <f t="shared" ref="S12:T12" si="2">B2</f>
+        <f t="shared" ref="S12:T12" si="4">B2</f>
         <v>0</v>
       </c>
       <c r="T12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>255</v>
       </c>
       <c r="U12" s="2"/>
@@ -1001,11 +1004,11 @@
         <v>0</v>
       </c>
       <c r="W12" s="4">
-        <f t="shared" ref="W12:X12" si="3">B2</f>
+        <f t="shared" ref="W12:X12" si="5">B2</f>
         <v>0</v>
       </c>
       <c r="X12" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>255</v>
       </c>
       <c r="Y12" s="2"/>
@@ -1026,11 +1029,11 @@
         <v>0</v>
       </c>
       <c r="S13" s="4">
-        <f t="shared" ref="S13:T13" si="4">B2</f>
+        <f t="shared" ref="S13:T13" si="6">B2</f>
         <v>0</v>
       </c>
       <c r="T13" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>255</v>
       </c>
       <c r="U13" s="2"/>
@@ -1039,11 +1042,11 @@
         <v>1</v>
       </c>
       <c r="W13" s="4">
-        <f t="shared" ref="W13:X13" si="5">B3</f>
+        <f t="shared" ref="W13:X13" si="7">B3</f>
         <v>180</v>
       </c>
       <c r="X13" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>240</v>
       </c>
       <c r="Y13" s="2"/>
@@ -1064,11 +1067,11 @@
         <v>1</v>
       </c>
       <c r="S14" s="4">
-        <f t="shared" ref="S14:T14" si="6">B3</f>
+        <f t="shared" ref="S14:T14" si="8">B3</f>
         <v>180</v>
       </c>
       <c r="T14" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>240</v>
       </c>
       <c r="U14" s="2"/>
@@ -1077,11 +1080,11 @@
         <v>2</v>
       </c>
       <c r="W14" s="4">
-        <f t="shared" ref="W14:X14" si="7">B4</f>
+        <f t="shared" ref="W14:X14" si="9">B4</f>
         <v>235</v>
       </c>
       <c r="X14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>225</v>
       </c>
       <c r="Y14" s="2"/>
@@ -1099,11 +1102,11 @@
         <v>2</v>
       </c>
       <c r="S15" s="4">
-        <f t="shared" ref="S15:T15" si="8">B4</f>
+        <f t="shared" ref="S15:T15" si="10">B4</f>
         <v>235</v>
       </c>
       <c r="T15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>225</v>
       </c>
       <c r="U15" s="2"/>
@@ -1112,11 +1115,11 @@
         <v>3</v>
       </c>
       <c r="W15" s="4">
-        <f t="shared" ref="W15:X15" si="9">B5</f>
+        <f t="shared" ref="W15:X15" si="11">B5</f>
         <v>255</v>
       </c>
       <c r="X15" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>255</v>
       </c>
       <c r="Y15" s="2"/>
@@ -1131,11 +1134,11 @@
         <v>4</v>
       </c>
       <c r="S16" s="4">
-        <f t="shared" ref="S16:T16" si="10">B6</f>
+        <f t="shared" ref="S16:T16" si="12">B6</f>
         <v>255</v>
       </c>
       <c r="T16" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>235</v>
       </c>
       <c r="U16" s="2"/>
@@ -1144,11 +1147,11 @@
         <v>4</v>
       </c>
       <c r="W16" s="4">
-        <f t="shared" ref="W16:X16" si="11">B6</f>
+        <f t="shared" ref="W16:X16" si="13">B6</f>
         <v>255</v>
       </c>
       <c r="X16" s="4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>235</v>
       </c>
       <c r="Y16" s="2"/>
@@ -1166,12 +1169,12 @@
         <v>5</v>
       </c>
       <c r="S17" s="4">
-        <f t="shared" ref="S17:T17" si="12">B7</f>
+        <f t="shared" ref="S17:T17" si="14">B7</f>
         <v>225</v>
       </c>
-      <c r="T17" s="4">
-        <f t="shared" si="12"/>
-        <v>210</v>
+      <c r="T17" s="4" t="str">
+        <f t="shared" si="14"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="U17" s="2"/>
       <c r="V17" s="4">
@@ -1179,11 +1182,11 @@
         <v>4</v>
       </c>
       <c r="W17" s="4">
-        <f t="shared" ref="W17:X17" si="13">B6</f>
+        <f t="shared" ref="W17:X17" si="15">B6</f>
         <v>255</v>
       </c>
       <c r="X17" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>235</v>
       </c>
       <c r="Y17" s="2"/>
@@ -1201,11 +1204,11 @@
         <v>6</v>
       </c>
       <c r="S18" s="4">
-        <f t="shared" ref="S18:T18" si="14">B8</f>
+        <f t="shared" ref="S18:T18" si="16">B8</f>
         <v>240</v>
       </c>
       <c r="T18" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>180</v>
       </c>
       <c r="U18" s="2"/>
@@ -1214,12 +1217,12 @@
         <v>5</v>
       </c>
       <c r="W18" s="4">
-        <f t="shared" ref="W18:X18" si="15">B7</f>
+        <f t="shared" ref="W18:X18" si="17">B7</f>
         <v>225</v>
       </c>
-      <c r="X18" s="4">
-        <f t="shared" si="15"/>
-        <v>210</v>
+      <c r="X18" s="4" t="str">
+        <f t="shared" si="17"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Y18" s="2"/>
     </row>
@@ -1236,11 +1239,11 @@
         <v>7</v>
       </c>
       <c r="S19" s="4">
-        <f t="shared" ref="S19:T19" si="16">B9</f>
+        <f t="shared" ref="S19:T19" si="18">B9</f>
         <v>255</v>
       </c>
       <c r="T19" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U19" s="2"/>
@@ -1249,11 +1252,11 @@
         <v>6</v>
       </c>
       <c r="W19" s="4">
-        <f t="shared" ref="W19:X19" si="17">B8</f>
+        <f t="shared" ref="W19:X19" si="19">B8</f>
         <v>240</v>
       </c>
       <c r="X19" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>180</v>
       </c>
       <c r="Y19" s="2"/>
@@ -1267,11 +1270,11 @@
         <v>7</v>
       </c>
       <c r="S20" s="4">
-        <f t="shared" ref="S20:T20" si="18">B9</f>
+        <f t="shared" ref="S20:T20" si="20">B9</f>
         <v>255</v>
       </c>
       <c r="T20" s="4">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="U20" s="2"/>
@@ -1280,11 +1283,11 @@
         <v>7</v>
       </c>
       <c r="W20" s="4">
-        <f t="shared" ref="W20:X20" si="19">B9</f>
+        <f t="shared" ref="W20:X20" si="21">B9</f>
         <v>255</v>
       </c>
       <c r="X20" s="4">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="Y20" s="2"/>
@@ -1345,11 +1348,11 @@
         <v>0</v>
       </c>
       <c r="S22">
-        <f t="shared" ref="S22:T22" si="20">B2</f>
+        <f t="shared" ref="S22:T22" si="22">B2</f>
         <v>0</v>
       </c>
       <c r="T22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>255</v>
       </c>
       <c r="U22" s="2"/>
@@ -1358,11 +1361,11 @@
         <v>0</v>
       </c>
       <c r="W22">
-        <f t="shared" ref="W22:X22" si="21">B2</f>
+        <f t="shared" ref="W22:X22" si="23">B2</f>
         <v>0</v>
       </c>
       <c r="X22">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>255</v>
       </c>
       <c r="Y22" s="2"/>
@@ -1380,11 +1383,11 @@
         <v>0</v>
       </c>
       <c r="S23">
-        <f t="shared" ref="S23:T23" si="22">B2</f>
+        <f t="shared" ref="S23:T23" si="24">B2</f>
         <v>0</v>
       </c>
       <c r="T23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>255</v>
       </c>
       <c r="U23" s="2"/>
@@ -1393,11 +1396,11 @@
         <v>1</v>
       </c>
       <c r="W23">
-        <f t="shared" ref="W23:X23" si="23">B3</f>
+        <f t="shared" ref="W23:X23" si="25">B3</f>
         <v>180</v>
       </c>
       <c r="X23">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>240</v>
       </c>
       <c r="Y23" s="2"/>
@@ -1416,11 +1419,11 @@
         <v>0</v>
       </c>
       <c r="S24">
-        <f t="shared" ref="S24:T24" si="24">B2</f>
+        <f t="shared" ref="S24:T24" si="26">B2</f>
         <v>0</v>
       </c>
       <c r="T24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>255</v>
       </c>
       <c r="U24" s="2"/>
@@ -1429,11 +1432,11 @@
         <v>2</v>
       </c>
       <c r="W24">
-        <f t="shared" ref="W24:X24" si="25">B4</f>
+        <f t="shared" ref="W24:X24" si="27">B4</f>
         <v>235</v>
       </c>
       <c r="X24">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>225</v>
       </c>
       <c r="Y24" s="2"/>
@@ -1461,11 +1464,11 @@
         <v>1</v>
       </c>
       <c r="S25">
-        <f t="shared" ref="S25:T25" si="26">B3</f>
+        <f t="shared" ref="S25:T25" si="28">B3</f>
         <v>180</v>
       </c>
       <c r="T25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>240</v>
       </c>
       <c r="U25" s="2"/>
@@ -1474,11 +1477,11 @@
         <v>3</v>
       </c>
       <c r="W25">
-        <f t="shared" ref="W25:X25" si="27">B5</f>
+        <f t="shared" ref="W25:X25" si="29">B5</f>
         <v>255</v>
       </c>
       <c r="X25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>255</v>
       </c>
       <c r="Y25" s="2"/>
@@ -1503,11 +1506,11 @@
         <v>4</v>
       </c>
       <c r="S26">
-        <f t="shared" ref="S26:T26" si="28">B6</f>
+        <f t="shared" ref="S26:T26" si="30">B6</f>
         <v>255</v>
       </c>
       <c r="T26">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>235</v>
       </c>
       <c r="U26" s="2"/>
@@ -1516,11 +1519,11 @@
         <v>4</v>
       </c>
       <c r="W26">
-        <f t="shared" ref="W26:X26" si="29">B6</f>
+        <f t="shared" ref="W26:X26" si="31">B6</f>
         <v>255</v>
       </c>
       <c r="X26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>235</v>
       </c>
       <c r="Y26" s="2"/>
@@ -1545,12 +1548,12 @@
         <v>5</v>
       </c>
       <c r="S27">
-        <f t="shared" ref="S27:T27" si="30">B7</f>
+        <f t="shared" ref="S27:T27" si="32">B7</f>
         <v>225</v>
       </c>
-      <c r="T27">
-        <f t="shared" si="30"/>
-        <v>210</v>
+      <c r="T27" t="str">
+        <f t="shared" si="32"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="U27" s="2"/>
       <c r="V27">
@@ -1558,11 +1561,11 @@
         <v>4</v>
       </c>
       <c r="W27">
-        <f t="shared" ref="W27:X27" si="31">B6</f>
+        <f t="shared" ref="W27:X27" si="33">B6</f>
         <v>255</v>
       </c>
       <c r="X27">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>235</v>
       </c>
       <c r="Y27" s="2"/>
@@ -1587,11 +1590,11 @@
         <v>6</v>
       </c>
       <c r="S28">
-        <f t="shared" ref="S28:T28" si="32">B8</f>
+        <f t="shared" ref="S28:T28" si="34">B8</f>
         <v>240</v>
       </c>
       <c r="T28">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>180</v>
       </c>
       <c r="U28" s="2"/>
@@ -1600,11 +1603,11 @@
         <v>4</v>
       </c>
       <c r="W28">
-        <f t="shared" ref="W28:X28" si="33">B6</f>
+        <f t="shared" ref="W28:X28" si="35">B6</f>
         <v>255</v>
       </c>
       <c r="X28">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>235</v>
       </c>
       <c r="Y28" s="2"/>
@@ -1629,11 +1632,11 @@
         <v>7</v>
       </c>
       <c r="S29">
-        <f t="shared" ref="S29:T29" si="34">B9</f>
+        <f t="shared" ref="S29:T29" si="36">B9</f>
         <v>255</v>
       </c>
       <c r="T29">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="U29" s="2"/>
@@ -1642,12 +1645,12 @@
         <v>5</v>
       </c>
       <c r="W29">
-        <f t="shared" ref="W29:X29" si="35">B7</f>
+        <f t="shared" ref="W29:X29" si="37">B7</f>
         <v>225</v>
       </c>
-      <c r="X29">
-        <f t="shared" si="35"/>
-        <v>210</v>
+      <c r="X29" t="str">
+        <f t="shared" si="37"/>
+        <v xml:space="preserve"> </v>
       </c>
       <c r="Y29" s="2"/>
     </row>
@@ -1670,11 +1673,11 @@
         <v>7</v>
       </c>
       <c r="S30">
-        <f t="shared" ref="S30:T30" si="36">B9</f>
+        <f t="shared" ref="S30:T30" si="38">B9</f>
         <v>255</v>
       </c>
       <c r="T30">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="U30" s="2"/>
@@ -1683,11 +1686,11 @@
         <v>6</v>
       </c>
       <c r="W30">
-        <f t="shared" ref="W30:X30" si="37">B8</f>
+        <f t="shared" ref="W30:X30" si="39">B8</f>
         <v>240</v>
       </c>
       <c r="X30">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>180</v>
       </c>
       <c r="Y30" s="2"/>
@@ -1710,11 +1713,11 @@
         <v>7</v>
       </c>
       <c r="S31">
-        <f t="shared" ref="S31:T31" si="38">B9</f>
+        <f t="shared" ref="S31:T31" si="40">B9</f>
         <v>255</v>
       </c>
       <c r="T31">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="U31" s="2"/>
@@ -1723,11 +1726,11 @@
         <v>7</v>
       </c>
       <c r="W31">
-        <f t="shared" ref="W31:X31" si="39">B9</f>
+        <f t="shared" ref="W31:X31" si="41">B9</f>
         <v>255</v>
       </c>
       <c r="X31">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Y31" s="2"/>
